--- a/スキルアップTips.xlsx
+++ b/スキルアップTips.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="16155" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="16155" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="関数" sheetId="1" r:id="rId1"/>
+    <sheet name="文字列操作Tips" sheetId="1" r:id="rId1"/>
     <sheet name="DB" sheetId="2" r:id="rId2"/>
     <sheet name="テスト用DB環境" sheetId="3" r:id="rId3"/>
     <sheet name="SQLコマンド" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
   <si>
     <t>配属前スキル準備</t>
     <rPh sb="0" eb="2">
@@ -1127,47 +1127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→データの入れ物など物理的な部分を決定していく。</t>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ブツリテキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　 文字列、数字、英数字（半角）などのデータ型を決める</t>
-    <rPh sb="2" eb="5">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■正規化</t>
     <rPh sb="1" eb="4">
       <t>セイキカ</t>
@@ -1882,16 +1841,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・第１正規化</t>
-    <rPh sb="1" eb="2">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>セイキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→同一の情報のグループが繰り返し出現している部分を分離する。その結果、第１正規形は、繰り返しの配列構造が排除された構造になる。</t>
     <rPh sb="1" eb="3">
       <t>ドウイツ</t>
@@ -1943,26 +1892,6 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>コウゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・第２正規化</t>
-    <rPh sb="1" eb="2">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>セイキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・第３正規化</t>
-    <rPh sb="1" eb="2">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>セイキカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2171,10 +2100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>p87</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■Linuxサーバ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2261,6 +2186,524 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>キホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義_用語集</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL制約</t>
+    <rPh sb="8" eb="10">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHECK制約</t>
+    <rPh sb="5" eb="7">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複したデータを禁止。複数の列に設定可能。NULLを禁止するわけではない</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRYMARY KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL値を禁止する。
+※NULLを排除する理由
+1. SQL の作成にあたり、人間の直観に反する3値論理を考慮せねばならない。
+2. IS NULL、IS NOT NULL を指定する場合、インデックスが参照されないためパフォーマンスが悪い。
+3. 四則演算または SQL 関数の引数に NULL が含まれると「NULL の伝播」が起こる
+4. SQL の結果を受け取るホスト言語において、NULL の組み込み方が標準化されていない。
+5. 通常の列の値と違って、NULL は行のどこかに余分なビットを持つことで実装されている。そのため記憶領域を圧迫したり、検索パフォーマンスを悪化させる。
+</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一意性を保証。重複とNULLを禁止。1テーブルに１つ。複合主キーの指定。（※NOTNULL+UNIQUE）</t>
+    <rPh sb="0" eb="3">
+      <t>イチイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列の値が条件に該当するかチェックする。</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のテーブルの列を参照し、その列にないデータを禁止。２つの列の外部参照。参照整合性制約</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★DB設計構築フロー</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報戦略計画→業務分析→概念設計→論理設計→物理設計→性能設計</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■業務分析</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→データベース設計の対象となる具体的な業務や、その業務で利用する帳票、画面、ファイルなどを分析し、
+　 データベースに格納し管理する必要のあるデータを抽出整理します。</t>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・第１正規化</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・第２正規化</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・第３正規化</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・・・ユーザー・スキーマ・テーブルの関係
+人→ユーザー
+カバン→スキーマ
+ペン→テーブル・ビュー</t>
+    <rPh sb="18" eb="20">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ユーザー」という人が、「スキーマ」という鞄をもっていて、「スキーマ」という鞄の中に「テーブル、ビューetc」というモノをたくさん入れていくイメージ</t>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カバン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カバン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 ※４構成→ネーミング設計、スキーマ設計（テーブル設計）、非正規化設計、論理容量設計</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→DBを構築するハードウェア、OS、物理ファイルなど、より物理的な要素に対する具体的な設計をする。</t>
+    <rPh sb="4" eb="6">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 ※５構成→インデックス設計、物理容量設計、ログ領域設計、CPU設計、メモリ設計</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 エンティティの抽出・分解と統合、正規化、中小s化、ER図またはEDMによる整理</t>
+    <rPh sb="9" eb="11">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→システム化すべき対象領域の明確化
+ 　データベース化の目的、対象領域、目標</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>メイカクカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■情報戦略計画</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2316,12 +2759,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2655,7 +3104,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2959,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B73"/>
+  <dimension ref="A2:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2983,12 +3432,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
@@ -3026,275 +3475,393 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>126</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3312,42 +3879,42 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3368,10 +3935,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
